--- a/resources/experiment 1/metrics/R2/average time/Fallo Cardiaco.xlsx
+++ b/resources/experiment 1/metrics/R2/average time/Fallo Cardiaco.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9871710110996831</v>
+        <v>0.9857675710868646</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9871710110996831</v>
+        <v>0.985351507780873</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9871710110996831</v>
+        <v>0.9846258810617178</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9896285235300178</v>
+        <v>0.984882949614016</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9896285235300178</v>
+        <v>0.9852420679042488</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9896285235300178</v>
+        <v>0.9849952715470319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9759486689549818</v>
+        <v>0.9893350389276304</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9759486689549818</v>
+        <v>0.9890726811129923</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9759486689549818</v>
+        <v>0.9894529453940709</v>
       </c>
     </row>
   </sheetData>
